--- a/PCB/Project Outputs for RTU_LMG/BOM/Bill of Materials-RTU_LMG.xlsx
+++ b/PCB/Project Outputs for RTU_LMG/BOM/Bill of Materials-RTU_LMG.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C89E008-A371-45D7-ADB0-5812B701D850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D9FC98-9226-4160-BD03-1F69AA0DC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="01_DIN_DC_Base_Board_103_86" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_DIN_DC_Base_Board_103_86'!$A$1:$F$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_DIN_DC_Base_Board_103_86'!$A$1:$F$123</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="286">
   <si>
     <t>Quantity</t>
   </si>
@@ -63,26 +63,16 @@
     <t>B1, B2, B3, B4</t>
   </si>
   <si>
+    <t xml:space="preserve">	
+4518-FDS6679AZTR-ND</t>
+  </si>
+  <si>
     <t>FDS6679AZ</t>
   </si>
   <si>
     <t>512-FDS6679AZ</t>
   </si>
   <si>
-    <t>BT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-36-1042-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-1042</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
     <t>0.1 µF</t>
   </si>
   <si>
@@ -98,9 +88,6 @@
     <t>81-GRM155R71H104KE4D</t>
   </si>
   <si>
-    <t>Capacitor CL05B104KB5NNNC 100nF 50V ±10% 0402 SMD Samsung  X7R RoHs</t>
-  </si>
-  <si>
     <t>1 µF</t>
   </si>
   <si>
@@ -114,9 +101,6 @@
     <t>CL05A105KO5NNNC</t>
   </si>
   <si>
-    <t>Capacitor CL05A105KL5NRNC 1uF 35V ±10% 0402 SMD Samsung  X5R RoHs</t>
-  </si>
-  <si>
     <t>10 µF</t>
   </si>
   <si>
@@ -130,9 +114,6 @@
     <t>C3225X7R1N106K250AC</t>
   </si>
   <si>
-    <t>Capacitor CGA6P1X7R1N106MT0Y0E 10μF ±20% X7R 75V 1210 TDK</t>
-  </si>
-  <si>
     <t>22 µF</t>
   </si>
   <si>
@@ -148,9 +129,6 @@
     <t>187-CL21A226MOCLRNC</t>
   </si>
   <si>
-    <t>Capacitor CL21A226MOQNNNE 22uF 16V ±20% 0805 SMD Samsung  X5R RoHs</t>
-  </si>
-  <si>
     <t>0.047 µF</t>
   </si>
   <si>
@@ -179,9 +157,6 @@
     <t>603-CC402FRNPO9BN101</t>
   </si>
   <si>
-    <t>Capacitor CC0402FRNPO9BN101 100pF 50V ±1% 0402 SMD Yageo  NPO RoHs</t>
-  </si>
-  <si>
     <t>100 µF</t>
   </si>
   <si>
@@ -194,25 +169,6 @@
     <t>710-865080343009</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Capacitor 100uF 16V ±20% 6.3*5.4mm SMD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>立迈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>VT  105°  2000H RoHs</t>
-    </r>
-  </si>
-  <si>
     <t>33 pF</t>
   </si>
   <si>
@@ -228,9 +184,6 @@
     <t>603-CC402GRNPO9BN330</t>
   </si>
   <si>
-    <t>Capacitor CC0402GRNPO9BN330 33pF 50V ±2% 0402 SMD Yageo  NP0 RoHs</t>
-  </si>
-  <si>
     <t>10 pF</t>
   </si>
   <si>
@@ -246,9 +199,6 @@
     <t>603-CC402DRNPO9BN100</t>
   </si>
   <si>
-    <t>Capacitor CC0402DRNPO9BN100 10pF 50V ±0.5pF 0402 SMD Yageo  NP0 RoHs</t>
-  </si>
-  <si>
     <t>4700pF</t>
   </si>
   <si>
@@ -275,9 +225,6 @@
 06035D105MAT2A</t>
   </si>
   <si>
-    <t>Capacitor CL10A105KB8NNNC 1uF 50V ±10% 0603 SMD Samsung  X5R RoHs</t>
-  </si>
-  <si>
     <t>C37</t>
   </si>
   <si>
@@ -287,25 +234,6 @@
     <t>HHXD350ARA101MHA0G</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Capacitor VT1H101M-CRF10 100uF 50V ±20% 8.0*10.5mm SMD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>立迈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>VT 105°  2000H RoHs</t>
-    </r>
-  </si>
-  <si>
     <t>C42, C43, C49</t>
   </si>
   <si>
@@ -365,18 +293,12 @@
     <t>C1608X5R1A226M080AC</t>
   </si>
   <si>
-    <t>Capacitor CL10A226MP8NUNE 22uF 10V ±20% 0603 SMD Samsung  X5R  RoHs</t>
-  </si>
-  <si>
     <t>C60</t>
   </si>
   <si>
     <t>732-7947-2-ND</t>
   </si>
   <si>
-    <t>Capacitor CC0603JRNPO9BN101 100pF 50V ±5% 0603 SMD Yageo  NP0 RoHs</t>
-  </si>
-  <si>
     <t>CR1, CR2</t>
   </si>
   <si>
@@ -436,9 +358,6 @@
     <t>595-BQ25186DLHR</t>
   </si>
   <si>
-    <t>IC BQ25186DLHR WSON10 SMD TI RoHs</t>
-  </si>
-  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -464,9 +383,6 @@
     <t>621-AZ2185D-ADJTRG1</t>
   </si>
   <si>
-    <t>IC AZ2185D-ADJTRG1 TO252-3 SMD Diodes RoHs</t>
-  </si>
-  <si>
     <t>IC4</t>
   </si>
   <si>
@@ -479,9 +395,6 @@
     <t>595-TXS0102DQMR</t>
   </si>
   <si>
-    <t>IC TXS0102DQMR X2SON-8 SMD TI RoHs</t>
-  </si>
-  <si>
     <t>IC5</t>
   </si>
   <si>
@@ -507,26 +420,18 @@
     <t>RX8130CE</t>
   </si>
   <si>
-    <t>IC RX8130CE B0 SMD-10 SMD Epson RoHs</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-CP-202A-ND</t>
-  </si>
-  <si>
-    <t>PJ-202A</t>
-  </si>
-  <si>
-    <t>5.5MM x 2.1MM</t>
-  </si>
-  <si>
-    <t>DC-005B-2.5A-2.0 2.0mm ID 6.5mm OD Flat Pin 2.5A DIP-3 XKB(CN) RoHs</t>
-  </si>
-  <si>
-    <t>http://oss.mokotechnology.com/uploads/20190503/1556504291279_C319132_DC%E7%94%B5%E6%BA%90%E6%8F%92%E5%BA%A7DC%E8%BF%9E%E6%8E%A5%E5%99%A8W14.4XD9.0XH11.0%2C%E5%86%85%E8%8A%AF2.0%2C2.5A24V_2018-10-29.PDF</t>
+    <t>J1, J5, J6, J7, J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+102-6406-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+TBP01R1-508-02BE</t>
+  </si>
+  <si>
+    <t>TBP01R1-508-02BE</t>
   </si>
   <si>
     <t>J2</t>
@@ -538,16 +443,21 @@
     <t>3220-10-0100-00</t>
   </si>
   <si>
-    <t>Janepull  2*5p distance:1.27mm black DIP-10 straight needle HF(CN) 260° RoHs</t>
-  </si>
-  <si>
-    <t>http://oss.mokotechnology.com/uploads/20200629/17019/9a3a7a17d5c140519cd81fa23ccfd5af/RX%201.27%E7%AE%80%E7%89%9B%20%E5%8D%95%E6%A7%BD%20%E7%9B%B4%E9%92%88.pdf</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>609-3470-ND</t>
+    <t xml:space="preserve">	
+S7036-ND</t>
+  </si>
+  <si>
+    <t>PPPC031LFBN-RC</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+609-3470-ND</t>
   </si>
   <si>
     <t xml:space="preserve">	
@@ -558,39 +468,6 @@
 put jumper 2.54mm in each one</t>
   </si>
   <si>
-    <t>Single-row pin 1*3 pin, 2.54mm pitch, 6.0mm pin height, 2.5mm plastic height, straight pin, square lead, DIP-3 RX(CN), 260° RoHS</t>
-  </si>
-  <si>
-    <t>http://oss.mokotechnology.com/uploads/20190816/MXH%202.54%E5%8D%95%E6%8E%92%E9%92%88%20%E7%9B%B4%E9%92%88%206mm.pdf</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-609-3470-ND</t>
-  </si>
-  <si>
-    <t>J5, J6, J9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-ED2609-ND</t>
-  </si>
-  <si>
-    <t>OSTTC022162</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-ED2611-ND</t>
-  </si>
-  <si>
-    <t>OSTTC042162</t>
-  </si>
-  <si>
     <t>J12</t>
   </si>
   <si>
@@ -637,6 +514,9 @@
 LQG15HH6N8J02D</t>
   </si>
   <si>
+    <t>47uH</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
@@ -695,9 +575,6 @@
     <t>RNCS0603BKE100K</t>
   </si>
   <si>
-    <t>Resistor RT0603BRD07100KL 100K ±0.1% 0603 SMD Yageo RoHs</t>
-  </si>
-  <si>
     <t>56 kOhms</t>
   </si>
   <si>
@@ -710,9 +587,6 @@
     <t>AC0402FR-0756KL</t>
   </si>
   <si>
-    <t>Resistor 0402WGF5602TCE 56K ±1% 0402 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>3.3 kOhms</t>
   </si>
   <si>
@@ -728,9 +602,6 @@
     <t>279-CRGH0603F3K3</t>
   </si>
   <si>
-    <t>Resistor 0603WAF3301T5E 3.3K ±1% 0603 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>6.8 kOhms</t>
   </si>
   <si>
@@ -746,9 +617,6 @@
     <t>279-CRGP0603F6K8</t>
   </si>
   <si>
-    <t>Resistor 0603WAF6801T5E 6.8K ±1% 0603 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>10 kOhms</t>
   </si>
   <si>
@@ -764,9 +632,6 @@
     <t>603-RC0603FR-0710KL</t>
   </si>
   <si>
-    <t>Resistor 0603WAF1002T5E 10K ±1% 0603 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>75 Ohms</t>
   </si>
   <si>
@@ -782,9 +647,6 @@
     <t>71-CRCW040275R0FKEDC</t>
   </si>
   <si>
-    <t>Resistor 0402WGF750JTCE 75R ±1% 0402 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>82 kOhms</t>
   </si>
   <si>
@@ -797,9 +659,6 @@
     <t>RC0402FR-0782KL</t>
   </si>
   <si>
-    <t>Resistor 0402WGF8202TCE 82K ±1% 0402 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>R13, R20, R33, R34</t>
   </si>
   <si>
@@ -841,9 +700,6 @@
     <t>708-RMCF0402FT120K</t>
   </si>
   <si>
-    <t>Resistor 0402WGF1203TCE 120K ±1% 0402 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>4.7 kOhms</t>
   </si>
   <si>
@@ -857,9 +713,6 @@
 RT0603FRE074K7L</t>
   </si>
   <si>
-    <t>Resistor 0603WAF4701T5E 4.7K ±1% 0603 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>R24, R25</t>
   </si>
   <si>
@@ -895,9 +748,6 @@
     <t>RT0603FRE071K2L</t>
   </si>
   <si>
-    <t>Resistor 0603WAF1201T5E 1.2K ±1% 0603 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>2.2 kOhms</t>
   </si>
   <si>
@@ -910,9 +760,6 @@
     <t>ERJ-2RKF2201X</t>
   </si>
   <si>
-    <t>Resistor 0402WGF2201TCE 2.2K ±1% 0402 SMD UniOhm RoHs</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -959,9 +806,6 @@
     <t>621-AZ1084CD-3.3TRG1</t>
   </si>
   <si>
-    <t>IC AZ1084CD-3.3TRG1 TO252-3 SMD Diodes RoHs</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -974,9 +818,6 @@
     <t>356-ESP32WRVE22864PC</t>
   </si>
   <si>
-    <t xml:space="preserve">  ESP32-WROVER-E-N16R8(M213EH2864PH3Q0) 16MB SMD-47 SMD Espressif RoHs</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -987,9 +828,6 @@
     <t>TCA9534PWR</t>
   </si>
   <si>
-    <t>IC TCA9534PWR TSSOP16 SMD TI RoHs</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -999,9 +837,6 @@
     <t>BG95M3LA-64-SGNS</t>
   </si>
   <si>
-    <t xml:space="preserve">  BG95-M3 (BG95M3LA-64-SGNS) LGA102 SMD Quectel RoHs</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -1038,9 +873,6 @@
     <t>LM2596DSADJG</t>
   </si>
   <si>
-    <t>LM2596R-5.0 HTC TO-263-5</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -1051,6 +883,9 @@
     <t>B39162B8813P810</t>
   </si>
   <si>
+    <t>COAX CBL RP-SMA TO MHF4 7.8"</t>
+  </si>
+  <si>
     <t>17-2016695-4-ND</t>
   </si>
   <si>
@@ -1063,26 +898,58 @@
     <t>IPEX to SMA antenna connector</t>
   </si>
   <si>
-    <t>BWIPX1-SMA-1.13L200 1.13 Length 200mm IPEX to SMA Straight Female (External Thread Internal Hole) with 1 Nut + 1 Internal Tooth Washer + 1 Spring Washer Bat Wireless (CN) RoHs</t>
-  </si>
-  <si>
-    <t>http://oss.mokotechnology.com/uploads/20250331/177000/acba7b65e6d246e48985161e3828898f/BWIPX1-SMA-1.13L200.pdf</t>
-  </si>
-  <si>
-    <t>AUK Lithium battery 3.7v 2200maH</t>
+    <t>AUK 112990 Lithium battery 3.7v 3260maH</t>
+  </si>
+  <si>
+    <t>SEE PICTURE  1</t>
   </si>
   <si>
     <t>Provided by MOKO</t>
   </si>
   <si>
-    <t>AS-18650-2600-110 2600mAh 3.7V 18.5*65.5mm  AAS(CN) RoH</t>
+    <t>J10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+455-2248-ND</t>
+  </si>
+  <si>
+    <t>B3B-XH-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+CONN JUMPER SHORTING .100" GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+S9337-ND</t>
+  </si>
+  <si>
+    <t>QPC02SXGN-RC</t>
+  </si>
+  <si>
+    <t>AK-S-130 Enclosure</t>
+  </si>
+  <si>
+    <t>https://www.chinaenclosure.com/products/ABS-Black-Project-Box-AK-S-130.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+TERM BLOCK PLUG 2POS 5.08MM</t>
+  </si>
+  <si>
+    <t>102-6390-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+TBP01P1-508-02BE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1092,12 +959,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1111,26 +972,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1145,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1173,29 +1033,12 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1205,59 +1048,54 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1570,51 +1408,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A72:I73"/>
+    <sheetView tabSelected="1" topLeftCell="F48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A69:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92.42578125" customWidth="1"/>
-    <col min="8" max="8" width="106" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="24">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1622,68 +1456,64 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.15" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.15" customHeight="1">
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1699,1639 +1529,1420 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.15" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="7">
+        <v>865080343009</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7">
-        <v>865080343009</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.15" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.15" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.15" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.15" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.15" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.15" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.15" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="8">
+        <v>885012206028</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.15" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="8">
-        <v>885012206028</v>
+        <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.15" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.15" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.15" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.15" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.15" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.15" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.15" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.15" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.15" customHeight="1">
+      <c r="G32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A34" s="12">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.15" customHeight="1">
+      <c r="G34" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.15" customHeight="1">
+      <c r="G35" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.15" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.15" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.15" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>181</v>
+        <v>161</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.15" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="G47" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A45" s="1">
+      <c r="E48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A51" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A46" s="1">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="F52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A50" s="1">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A53" s="1">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.15" customHeight="1">
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A54" s="1">
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.15" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="13.15" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>249</v>
+        <v>222</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="13.15" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>253</v>
+        <v>226</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.15" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A58" s="1">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.15" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A59" s="1">
         <v>1</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.15" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.15" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.15" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="13.15" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A63" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="13.15" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="13.15" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.15" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.15" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.15" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1" ht="13.15" customHeight="1">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="13.15" customHeight="1">
+        <v>267</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1">
       <c r="A70" s="1">
         <v>1</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.15" customHeight="1">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A72" s="1">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="12.75">
-      <c r="A73" s="1">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" ht="12.75">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="12.75"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A72" s="14">
+        <v>1</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="14">
+        <v>1</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" ht="24">
+      <c r="A74" s="14">
+        <v>5</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7"/>
+    <row r="84"/>
   </sheetData>
-  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F123" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1" xr:uid="{0AA6F657-870B-4E3D-A505-951B0BA39C5D}"/>
-    <hyperlink ref="I33" r:id="rId2" xr:uid="{FC1A1FFC-7A1F-4AB1-975B-F8DAB9BC7D92}"/>
-    <hyperlink ref="I72" r:id="rId3" xr:uid="{17B33468-38B6-43CD-A045-304ADF0E6AB8}"/>
-    <hyperlink ref="I34" r:id="rId4" xr:uid="{6FB2D887-429C-45AF-99BB-AECDD991CB45}"/>
+    <hyperlink ref="D73" r:id="rId1" xr:uid="{2E629BD3-A6C0-4C7B-B9C0-4F57BD0E0835}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
